--- a/documentation/Test_Scales_and_Relationship_Relevance.xlsx
+++ b/documentation/Test_Scales_and_Relationship_Relevance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuel/Desktop/EKU Tübingen/data_literacy/project/repo/LEMON-Love-Predictor/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6ABABB-868C-6F45-B30C-0A896DAAA904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C107753-F55E-B749-BCE0-0E030C3FB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
   <si>
     <t>Test Name</t>
   </si>
@@ -353,13 +353,46 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>einzelne tests betrachten. Und subsamples aufsplitten</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>brauchen wir?</t>
+  </si>
+  <si>
+    <t>measure an individuals perception of social support afross three dimensions</t>
+  </si>
+  <si>
+    <t>3 dimensions splitten</t>
+  </si>
+  <si>
+    <t>dimensionen aufsplitten 4</t>
+  </si>
+  <si>
+    <t>eiQueSF_self_control: Self Control</t>
+  </si>
+  <si>
+    <t>TeiQueSF_emotionality: Emotionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TeiQueSF_sociability: Sociability </t>
+  </si>
+  <si>
+    <t>TeiQueSF_well_being: Well-being</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,8 +402,29 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,7 +438,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -407,15 +461,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -720,23 +798,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,508 +834,621 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F17" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F24" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G25" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
+      <c r="G26" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I26">
+    <sortCondition ref="G1:G26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/Test_Scales_and_Relationship_Relevance.xlsx
+++ b/documentation/Test_Scales_and_Relationship_Relevance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuel/Desktop/EKU Tübingen/data_literacy/project/repo/LEMON-Love-Predictor/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C107753-F55E-B749-BCE0-0E030C3FB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF7543-B695-D447-8229-DD3C2E3B6AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
   <si>
     <t>Test Name</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>aufsplitten</t>
+  </si>
+  <si>
+    <t>einzeln betrachten.</t>
   </si>
 </sst>
 </file>
@@ -800,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -886,42 +892,45 @@
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>121</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>109</v>
@@ -932,19 +941,19 @@
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>109</v>
@@ -952,131 +961,134 @@
       <c r="G6" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>121</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>115</v>
+      <c r="H8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>111</v>
+      <c r="I9" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>108</v>
@@ -1084,27 +1096,27 @@
       <c r="G11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>120</v>
+      <c r="H11" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>108</v>
@@ -1117,19 +1129,19 @@
     </row>
     <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>108</v>
@@ -1142,71 +1154,71 @@
     </row>
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">

--- a/documentation/Test_Scales_and_Relationship_Relevance.xlsx
+++ b/documentation/Test_Scales_and_Relationship_Relevance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuel/Desktop/EKU Tübingen/data_literacy/project/repo/LEMON-Love-Predictor/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C107753-F55E-B749-BCE0-0E030C3FB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C447D270-428C-BA4D-B357-D11DA24A8753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
   <si>
     <t>Test Name</t>
   </si>
@@ -386,13 +386,55 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>einzeln betrachten.</t>
+  </si>
+  <si>
+    <t>TAP_WM1 und TAP_WM6 durschnittliche reaktionszeit und richtige beantowrtet</t>
+  </si>
+  <si>
+    <t>man benötigt alle features zum aufsplitten. paper zusammenfassung steht bereit im info text</t>
+  </si>
+  <si>
+    <t>mittelwert schon genommen. Beide spalten müssen aufgesplittet werden da es zwei unterschiedliche strategien der gefühlsbewertung sind</t>
+  </si>
+  <si>
+    <r>
+      <t>Gross, J. J., &amp; John, O. P. (2003).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0E0E0E"/>
+        <rFont val=".AppleSystemUIFont"/>
+      </rPr>
+      <t xml:space="preserve"> Individual differences in two emotion regulation processes: Implications for affect, relationships, and well-being. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF0E0E0E"/>
+        <rFont val=".AppleSystemUIFont"/>
+      </rPr>
+      <t>Journal of Personality and Social Psychology, 85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0E0E0E"/>
+        <rFont val=".AppleSystemUIFont"/>
+      </rPr>
+      <t>(2), 348–362.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +470,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0E0E0E"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0E0E0E"/>
+      <name val=".AppleSystemUIFont"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF0E0E0E"/>
+      <name val=".AppleSystemUIFont"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -494,6 +553,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -801,10 +861,10 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
@@ -812,10 +872,10 @@
     <col min="4" max="4" width="105.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="137.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +898,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="19">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -861,7 +921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -883,45 +943,51 @@
       <c r="G3" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>109</v>
@@ -929,22 +995,28 @@
       <c r="G5" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>109</v>
@@ -952,131 +1024,134 @@
       <c r="G6" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="I9" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="19">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>108</v>
@@ -1084,27 +1159,27 @@
       <c r="G11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>120</v>
+      <c r="H11" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="19">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>108</v>
@@ -1115,21 +1190,21 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="19">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>108</v>
@@ -1140,76 +1215,76 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="19">
       <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1235,7 +1310,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1359,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="19">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1307,7 +1382,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="19">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="19">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1428,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="19">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1451,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="19">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="19">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="19">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
